--- a/employee.xlsx
+++ b/employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnold\Downloads\payslip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C4C156-5CD8-4DC3-9CD1-2704E97E4766}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0917CC14-379F-4E0C-85FD-33171696240F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{07E85256-FE24-474A-BE12-332652401EAF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>Wilson</t>
+  </si>
+  <si>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>Venis</t>
+  </si>
+  <si>
+    <t>Venus shine Val</t>
   </si>
 </sst>
 </file>
@@ -570,7 +579,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,12 +895,24 @@
       <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2">
+        <v>30704</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>

--- a/employee.xlsx
+++ b/employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnold\Downloads\payslip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0917CC14-379F-4E0C-85FD-33171696240F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AB9A40-0630-4BF8-80DD-0C6F8A4787C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{07E85256-FE24-474A-BE12-332652401EAF}"/>
   </bookViews>
@@ -579,7 +579,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
